--- a/Code/Results/Cases/Case_0_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_89/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1463626770418074</v>
+        <v>0.04917089449816103</v>
       </c>
       <c r="D2">
-        <v>0.01173810300778833</v>
+        <v>0.0201798235502082</v>
       </c>
       <c r="E2">
-        <v>0.1697046087277272</v>
+        <v>0.08907804039668576</v>
       </c>
       <c r="F2">
-        <v>1.092379424929703</v>
+        <v>0.973411283863939</v>
       </c>
       <c r="G2">
-        <v>1.054524118103799</v>
+        <v>0.8376653156757072</v>
       </c>
       <c r="H2">
-        <v>0.6092134984388622</v>
+        <v>0.8417501268403811</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.590553238982068</v>
+        <v>1.18336423364957</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.064970486645691</v>
+        <v>0.3903609337213396</v>
       </c>
       <c r="N2">
-        <v>0.571084537253371</v>
+        <v>1.194751420916911</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.12626786900843</v>
+        <v>0.04365387833961165</v>
       </c>
       <c r="D3">
-        <v>0.01233489412956601</v>
+        <v>0.02034135116610436</v>
       </c>
       <c r="E3">
-        <v>0.1475566979282164</v>
+        <v>0.08409063378335446</v>
       </c>
       <c r="F3">
-        <v>0.9779114165091869</v>
+        <v>0.9530165663767747</v>
       </c>
       <c r="G3">
-        <v>0.9394618518661986</v>
+        <v>0.816356225585352</v>
       </c>
       <c r="H3">
-        <v>0.563993966129928</v>
+        <v>0.8378073356566631</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.106313120272858</v>
+        <v>1.046738008367527</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9192435728812072</v>
+        <v>0.3513415549217882</v>
       </c>
       <c r="N3">
-        <v>0.6183818449079088</v>
+        <v>1.212704287276077</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1140954271401853</v>
+        <v>0.04028331649385564</v>
       </c>
       <c r="D4">
-        <v>0.01271970659542809</v>
+        <v>0.02044642775869043</v>
       </c>
       <c r="E4">
-        <v>0.1343601457810273</v>
+        <v>0.08110301514950891</v>
       </c>
       <c r="F4">
-        <v>0.9102781782998477</v>
+        <v>0.9412631593784653</v>
       </c>
       <c r="G4">
-        <v>0.8716158845571016</v>
+        <v>0.8040017444839123</v>
       </c>
       <c r="H4">
-        <v>0.5377683932446473</v>
+        <v>0.835944170149304</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.811469225759936</v>
+        <v>0.9630244209873808</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8309449974283822</v>
+        <v>0.3275340707216046</v>
       </c>
       <c r="N4">
-        <v>0.648748506928158</v>
+        <v>1.224271010639573</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1091708677017351</v>
+        <v>0.03891395961441901</v>
       </c>
       <c r="D5">
-        <v>0.01288081785896722</v>
+        <v>0.02049072960788223</v>
       </c>
       <c r="E5">
-        <v>0.1290716731836028</v>
+        <v>0.07990406411087037</v>
       </c>
       <c r="F5">
-        <v>0.8833202373311195</v>
+        <v>0.9366659079900899</v>
       </c>
       <c r="G5">
-        <v>0.844603774846405</v>
+        <v>0.7991493452811795</v>
       </c>
       <c r="H5">
-        <v>0.5274363295606008</v>
+        <v>0.8353247065070519</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.691832947353845</v>
+        <v>0.9289542429186497</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7952155074915979</v>
+        <v>0.3178697135032209</v>
       </c>
       <c r="N5">
-        <v>0.6614428232716141</v>
+        <v>1.229121011414338</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1083551468392443</v>
+        <v>0.03868682882986718</v>
       </c>
       <c r="D6">
-        <v>0.01290782106769228</v>
+        <v>0.02049817540422971</v>
       </c>
       <c r="E6">
-        <v>0.1281985843104891</v>
+        <v>0.07970609100909343</v>
       </c>
       <c r="F6">
-        <v>0.8788785564453718</v>
+        <v>0.9359141260608794</v>
       </c>
       <c r="G6">
-        <v>0.8401549043829135</v>
+        <v>0.7983545729736079</v>
       </c>
       <c r="H6">
-        <v>0.5257412523555729</v>
+        <v>0.8352302749367198</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.67199551127095</v>
+        <v>0.9232995513605431</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7892967216687552</v>
+        <v>0.3162671986030077</v>
       </c>
       <c r="N6">
-        <v>0.6635696289842148</v>
+        <v>1.229934586195914</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1140288753020542</v>
+        <v>0.04026483206604325</v>
       </c>
       <c r="D7">
-        <v>0.0127218623990899</v>
+        <v>0.02044701922914527</v>
       </c>
       <c r="E7">
-        <v>0.1342884774007693</v>
+        <v>0.08108677098459438</v>
       </c>
       <c r="F7">
-        <v>0.9099122522889047</v>
+        <v>0.9412003817469525</v>
       </c>
       <c r="G7">
-        <v>0.8712491035831249</v>
+        <v>0.8039355674704183</v>
       </c>
       <c r="H7">
-        <v>0.5376276543475598</v>
+        <v>0.8359352504417075</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.809853821841898</v>
+        <v>0.9625647617746154</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.830462168001489</v>
+        <v>0.3274035830688788</v>
       </c>
       <c r="N7">
-        <v>0.6489184300510553</v>
+        <v>1.224335867199005</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1393958754356248</v>
+        <v>0.04726506966014199</v>
       </c>
       <c r="D8">
-        <v>0.01193985311362766</v>
+        <v>0.02023429357161177</v>
       </c>
       <c r="E8">
-        <v>0.1619769983867556</v>
+        <v>0.08734273346382793</v>
       </c>
       <c r="F8">
-        <v>1.05232106796754</v>
+        <v>0.9662189469840996</v>
       </c>
       <c r="G8">
-        <v>1.014225679739511</v>
+        <v>0.8301657897390697</v>
       </c>
       <c r="H8">
-        <v>0.5932822475689647</v>
+        <v>0.8402746194898185</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.4230038048496</v>
+        <v>1.136218843769029</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014452041833536</v>
+        <v>0.3768754998494543</v>
       </c>
       <c r="N8">
-        <v>0.5871088418467991</v>
+        <v>1.200828613440638</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1907480777889532</v>
+        <v>0.06113086700693771</v>
       </c>
       <c r="D9">
-        <v>0.01056919744935136</v>
+        <v>0.01986398586745608</v>
       </c>
       <c r="E9">
-        <v>0.2200618176459415</v>
+        <v>0.100215049990517</v>
       </c>
       <c r="F9">
-        <v>1.355746900213319</v>
+        <v>1.021432361485481</v>
       </c>
       <c r="G9">
-        <v>1.320257214206123</v>
+        <v>0.8874511918486689</v>
       </c>
       <c r="H9">
-        <v>0.7162188101359277</v>
+        <v>0.8532316029470053</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.65051527853808</v>
+        <v>1.478179707266861</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.386767537751169</v>
+        <v>0.4751112752005042</v>
       </c>
       <c r="N9">
-        <v>0.4770968761789369</v>
+        <v>1.159053477473734</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2299058126980214</v>
+        <v>0.07140923185518488</v>
       </c>
       <c r="D10">
-        <v>0.009689444904063649</v>
+        <v>0.01962056527909439</v>
       </c>
       <c r="E10">
-        <v>0.2659721188294384</v>
+        <v>0.1100583518448275</v>
       </c>
       <c r="F10">
-        <v>1.598230222982309</v>
+        <v>1.065823439068623</v>
       </c>
       <c r="G10">
-        <v>1.566007780239005</v>
+        <v>0.9331935180001096</v>
       </c>
       <c r="H10">
-        <v>0.8173946989692809</v>
+        <v>0.8654957159989465</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.5761303991153</v>
+        <v>1.730360434750025</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.670683972644298</v>
+        <v>0.5480744317927417</v>
       </c>
       <c r="N10">
-        <v>0.4041332365877768</v>
+        <v>1.131008367911803</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2481430175939465</v>
+        <v>0.0761064585615685</v>
       </c>
       <c r="D11">
-        <v>0.009324575534433777</v>
+        <v>0.01951607268849109</v>
       </c>
       <c r="E11">
-        <v>0.2877978143991839</v>
+        <v>0.1146240191649355</v>
       </c>
       <c r="F11">
-        <v>1.714008801478343</v>
+        <v>1.086865519702471</v>
       </c>
       <c r="G11">
-        <v>1.683680471621614</v>
+        <v>0.9548162504853792</v>
       </c>
       <c r="H11">
-        <v>0.8663979341170318</v>
+        <v>0.8716783643879751</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.004517454092763</v>
+        <v>1.845306156872823</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.80295226058054</v>
+        <v>0.5814488436438268</v>
       </c>
       <c r="N11">
-        <v>0.3729106903102215</v>
+        <v>1.11882736591819</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2551205637232812</v>
+        <v>0.07788837749667721</v>
       </c>
       <c r="D12">
-        <v>0.00919227713897719</v>
+        <v>0.019477404414463</v>
       </c>
       <c r="E12">
-        <v>0.2962206683269315</v>
+        <v>0.1163658552739335</v>
       </c>
       <c r="F12">
-        <v>1.7587534267862</v>
+        <v>1.094956851724902</v>
       </c>
       <c r="G12">
-        <v>1.729212007105389</v>
+        <v>0.9631228188649175</v>
       </c>
       <c r="H12">
-        <v>0.8854410926836351</v>
+        <v>0.8741069408500266</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.167990741163408</v>
+        <v>1.888866704121085</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.853567453597165</v>
+        <v>0.5941138697596955</v>
       </c>
       <c r="N12">
-        <v>0.3613959612527005</v>
+        <v>1.114297959110008</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2536144633434532</v>
+        <v>0.07750446656524446</v>
       </c>
       <c r="D13">
-        <v>0.009220494903818377</v>
+        <v>0.01948569219773866</v>
       </c>
       <c r="E13">
-        <v>0.2943992399922308</v>
+        <v>0.1159901407745849</v>
       </c>
       <c r="F13">
-        <v>1.749074786717102</v>
+        <v>1.093208742766421</v>
       </c>
       <c r="G13">
-        <v>1.719360603352044</v>
+        <v>0.9613285574438635</v>
       </c>
       <c r="H13">
-        <v>0.8813171551093433</v>
+        <v>0.8735800102639359</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.132724704300642</v>
+        <v>1.879483682400007</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.842641694565529</v>
+        <v>0.5913850266049394</v>
       </c>
       <c r="N13">
-        <v>0.3638617026998148</v>
+        <v>1.11526973903792</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2487155667538588</v>
+        <v>0.07625299387385098</v>
       </c>
       <c r="D14">
-        <v>0.009313568631627689</v>
+        <v>0.01951287335256069</v>
       </c>
       <c r="E14">
-        <v>0.2884874623362776</v>
+        <v>0.114767060597174</v>
       </c>
       <c r="F14">
-        <v>1.717671188453608</v>
+        <v>1.087528723612294</v>
       </c>
       <c r="G14">
-        <v>1.687406134085478</v>
+        <v>0.9554972536512594</v>
       </c>
       <c r="H14">
-        <v>0.8679545121061096</v>
+        <v>0.8718764112699944</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.0179401700874</v>
+        <v>1.848889243675615</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.807105324281949</v>
+        <v>0.5824902615672158</v>
       </c>
       <c r="N14">
-        <v>0.3719570258631553</v>
+        <v>1.118453058078227</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2457244968092738</v>
+        <v>0.07548684745893297</v>
       </c>
       <c r="D15">
-        <v>0.009371369073278402</v>
+        <v>0.01952964001360868</v>
       </c>
       <c r="E15">
-        <v>0.2848876170877759</v>
+        <v>0.1140195791166505</v>
       </c>
       <c r="F15">
-        <v>1.698556660726936</v>
+        <v>1.084065620599546</v>
       </c>
       <c r="G15">
-        <v>1.667963603654641</v>
+        <v>0.9519408871122721</v>
       </c>
       <c r="H15">
-        <v>0.8598347445732486</v>
+        <v>0.8708442982556051</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.947800764411966</v>
+        <v>1.830153588766166</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.785409593570677</v>
+        <v>0.5770454750944936</v>
       </c>
       <c r="N15">
-        <v>0.3769566366630821</v>
+        <v>1.120413787384134</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2287233760831242</v>
+        <v>0.07110269767534305</v>
       </c>
       <c r="D16">
-        <v>0.009714065446660314</v>
+        <v>0.0196275199746303</v>
       </c>
       <c r="E16">
-        <v>0.2645665621015283</v>
+        <v>0.1097617671419329</v>
       </c>
       <c r="F16">
-        <v>1.590783450985839</v>
+        <v>1.064465459658464</v>
       </c>
       <c r="G16">
-        <v>1.558446338923062</v>
+        <v>0.9317969281087528</v>
       </c>
       <c r="H16">
-        <v>0.8142569882787427</v>
+        <v>0.8651038581166688</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.548298144368857</v>
+        <v>1.722853071095983</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.662109228578686</v>
+        <v>0.54589706517244</v>
       </c>
       <c r="N16">
-        <v>0.4062154311429254</v>
+        <v>1.131816060321314</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2184094963067764</v>
+        <v>0.06841874107838919</v>
       </c>
       <c r="D17">
-        <v>0.009933869445085008</v>
+        <v>0.01968916684191413</v>
       </c>
       <c r="E17">
-        <v>0.2523564667120652</v>
+        <v>0.1071724469623163</v>
       </c>
       <c r="F17">
-        <v>1.526147200033535</v>
+        <v>1.052659502541673</v>
       </c>
       <c r="G17">
-        <v>1.492852017685522</v>
+        <v>0.9196488286962961</v>
       </c>
       <c r="H17">
-        <v>0.7870987038846238</v>
+        <v>0.8617372725637154</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.30522600176505</v>
+        <v>1.657086203366532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.587320049467124</v>
+        <v>0.5268357968760569</v>
       </c>
       <c r="N17">
-        <v>0.4246862355655452</v>
+        <v>1.13895895998154</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2125164534377859</v>
+        <v>0.06687702334342305</v>
       </c>
       <c r="D18">
-        <v>0.01006356634051819</v>
+        <v>0.01972521166237406</v>
       </c>
       <c r="E18">
-        <v>0.2454205893810624</v>
+        <v>0.105691395304838</v>
       </c>
       <c r="F18">
-        <v>1.489477536843751</v>
+        <v>1.045948809672666</v>
       </c>
       <c r="G18">
-        <v>1.455668947757317</v>
+        <v>0.9127381257797822</v>
       </c>
       <c r="H18">
-        <v>0.7717543807706875</v>
+        <v>0.8598576866583869</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.166093071780324</v>
+        <v>1.619280223794874</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.54459098082684</v>
+        <v>0.5158894620495573</v>
       </c>
       <c r="N18">
-        <v>0.4354937950412721</v>
+        <v>1.143121643884079</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2105276061959245</v>
+        <v>0.06635536917357854</v>
       </c>
       <c r="D19">
-        <v>0.01010801941951556</v>
+        <v>0.01973751656921507</v>
       </c>
       <c r="E19">
-        <v>0.2430865264249462</v>
+        <v>0.105191346382064</v>
       </c>
       <c r="F19">
-        <v>1.477145675772675</v>
+        <v>1.043690351714261</v>
       </c>
       <c r="G19">
-        <v>1.443169409621419</v>
+        <v>0.9104113873913775</v>
       </c>
       <c r="H19">
-        <v>0.7666048568753183</v>
+        <v>0.859231027731937</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.119095398873867</v>
+        <v>1.606483429800619</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.530170768656248</v>
+        <v>0.5121861597066442</v>
       </c>
       <c r="N19">
-        <v>0.4391838622720581</v>
+        <v>1.144540369531726</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2195032940041983</v>
+        <v>0.06870424285764898</v>
       </c>
       <c r="D20">
-        <v>0.009910127053926132</v>
+        <v>0.01968254363476163</v>
       </c>
       <c r="E20">
-        <v>0.2536470882129578</v>
+        <v>0.1074472279655296</v>
       </c>
       <c r="F20">
-        <v>1.532974534898102</v>
+        <v>1.053908001405986</v>
       </c>
       <c r="G20">
-        <v>1.499777368885702</v>
+        <v>0.9209340805126089</v>
       </c>
       <c r="H20">
-        <v>0.7899607409181613</v>
+        <v>0.8620897704430206</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.331030137078756</v>
+        <v>1.664084982848294</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.59525115885819</v>
+        <v>0.5288631172073224</v>
       </c>
       <c r="N20">
-        <v>0.422700805917585</v>
+        <v>1.138192966374558</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.250152460789181</v>
+        <v>0.07662049474195953</v>
       </c>
       <c r="D21">
-        <v>0.009286064365898739</v>
+        <v>0.01950486511177729</v>
       </c>
       <c r="E21">
-        <v>0.2902194135059588</v>
+        <v>0.1151259561081019</v>
       </c>
       <c r="F21">
-        <v>1.726869728249042</v>
+        <v>1.089193731296987</v>
       </c>
       <c r="G21">
-        <v>1.696764492867175</v>
+        <v>0.9572068213332727</v>
       </c>
       <c r="H21">
-        <v>0.8718657344962537</v>
+        <v>0.8723744248369485</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.051619469136142</v>
+        <v>1.857874670474757</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.817528196614205</v>
+        <v>0.5851021364098585</v>
       </c>
       <c r="N21">
-        <v>0.3695706408594477</v>
+        <v>1.117515777460693</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2706060735872171</v>
+        <v>0.08181280394936152</v>
       </c>
       <c r="D22">
-        <v>0.008912883972243435</v>
+        <v>0.01939399433784317</v>
       </c>
       <c r="E22">
-        <v>0.3150548057983613</v>
+        <v>0.120219869496168</v>
       </c>
       <c r="F22">
-        <v>1.85891131797753</v>
+        <v>1.112973369746982</v>
       </c>
       <c r="G22">
-        <v>1.831239006967422</v>
+        <v>0.9816045772585653</v>
       </c>
       <c r="H22">
-        <v>0.9282646145290698</v>
+        <v>0.8796053896993783</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.529976851911613</v>
+        <v>1.984720546708729</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.965921729845022</v>
+        <v>0.6220144035981292</v>
       </c>
       <c r="N22">
-        <v>0.3366596758737401</v>
+        <v>1.104487580705449</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2596471282339508</v>
+        <v>0.07903984311577972</v>
       </c>
       <c r="D23">
-        <v>0.009108587244433863</v>
+        <v>0.01945268633611441</v>
       </c>
       <c r="E23">
-        <v>0.3017060341694275</v>
+        <v>0.1174941587776246</v>
       </c>
       <c r="F23">
-        <v>1.787909827192024</v>
+        <v>1.100215611926899</v>
       </c>
       <c r="G23">
-        <v>1.758897280787124</v>
+        <v>0.9685193014881861</v>
       </c>
       <c r="H23">
-        <v>0.8978797297787366</v>
+        <v>0.8756993026086661</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.273918014825767</v>
+        <v>1.917002710130532</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.886406383063076</v>
+        <v>0.6022991055833842</v>
       </c>
       <c r="N23">
-        <v>0.3540497985799114</v>
+        <v>1.111396438786818</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2190086750185998</v>
+        <v>0.06857516338433811</v>
       </c>
       <c r="D24">
-        <v>0.009920850678939885</v>
+        <v>0.01968553610788426</v>
       </c>
       <c r="E24">
-        <v>0.2530633386724475</v>
+        <v>0.1073229758766701</v>
       </c>
       <c r="F24">
-        <v>1.529886377281386</v>
+        <v>1.053343316215731</v>
       </c>
       <c r="G24">
-        <v>1.496644782402257</v>
+        <v>0.9203527896376897</v>
       </c>
       <c r="H24">
-        <v>0.7886659793856268</v>
+        <v>0.8619302320382189</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.319362194551729</v>
+        <v>1.660920821386185</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.591664674785036</v>
+        <v>0.527946527597976</v>
       </c>
       <c r="N24">
-        <v>0.4235978335737478</v>
+        <v>1.13853909724548</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1766401154599038</v>
+        <v>0.0573642875761351</v>
       </c>
       <c r="D25">
-        <v>0.01091994337836866</v>
+        <v>0.01995914122488607</v>
       </c>
       <c r="E25">
-        <v>0.2038533549465598</v>
+        <v>0.09666623743375169</v>
       </c>
       <c r="F25">
-        <v>1.270606697203917</v>
+        <v>1.005829297462299</v>
       </c>
       <c r="G25">
-        <v>1.234209621210169</v>
+        <v>0.8713186745983421</v>
       </c>
       <c r="H25">
-        <v>0.6812470011043956</v>
+        <v>0.8492468393872343</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.314931483098803</v>
+        <v>1.3855101466973</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.284488479462667</v>
+        <v>0.448400538580529</v>
       </c>
       <c r="N25">
-        <v>0.5055590262584553</v>
+        <v>1.169890796227889</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_89/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04917089449816103</v>
+        <v>0.1463626770419211</v>
       </c>
       <c r="D2">
-        <v>0.0201798235502082</v>
+        <v>0.01173810300789846</v>
       </c>
       <c r="E2">
-        <v>0.08907804039668576</v>
+        <v>0.169704608727713</v>
       </c>
       <c r="F2">
-        <v>0.973411283863939</v>
+        <v>1.092379424929703</v>
       </c>
       <c r="G2">
-        <v>0.8376653156757072</v>
+        <v>1.054524118103828</v>
       </c>
       <c r="H2">
-        <v>0.8417501268403811</v>
+        <v>0.609213498438848</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.18336423364957</v>
+        <v>3.590553238982011</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3903609337213396</v>
+        <v>1.064970486645699</v>
       </c>
       <c r="N2">
-        <v>1.194751420916911</v>
+        <v>0.5710845372533662</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04365387833961165</v>
+        <v>0.12626786900843</v>
       </c>
       <c r="D3">
-        <v>0.02034135116610436</v>
+        <v>0.01233489412979338</v>
       </c>
       <c r="E3">
-        <v>0.08409063378335446</v>
+        <v>0.1475566979282448</v>
       </c>
       <c r="F3">
-        <v>0.9530165663767747</v>
+        <v>0.9779114165091727</v>
       </c>
       <c r="G3">
-        <v>0.816356225585352</v>
+        <v>0.9394618518661559</v>
       </c>
       <c r="H3">
-        <v>0.8378073356566631</v>
+        <v>0.5639939661300417</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.046738008367527</v>
+        <v>3.106313120272887</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3513415549217882</v>
+        <v>0.9192435728812214</v>
       </c>
       <c r="N3">
-        <v>1.212704287276077</v>
+        <v>0.6183818449079101</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04028331649385564</v>
+        <v>0.1140954271399011</v>
       </c>
       <c r="D4">
-        <v>0.02044642775869043</v>
+        <v>0.01271970659547428</v>
       </c>
       <c r="E4">
-        <v>0.08110301514950891</v>
+        <v>0.1343601457810522</v>
       </c>
       <c r="F4">
-        <v>0.9412631593784653</v>
+        <v>0.9102781782998335</v>
       </c>
       <c r="G4">
-        <v>0.8040017444839123</v>
+        <v>0.8716158845571158</v>
       </c>
       <c r="H4">
-        <v>0.835944170149304</v>
+        <v>0.537768393244761</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9630244209873808</v>
+        <v>2.81146922576005</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3275340707216046</v>
+        <v>0.8309449974283964</v>
       </c>
       <c r="N4">
-        <v>1.224271010639573</v>
+        <v>0.6487485069281025</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03891395961441901</v>
+        <v>0.1091708677018772</v>
       </c>
       <c r="D5">
-        <v>0.02049072960788223</v>
+        <v>0.01288081785901163</v>
       </c>
       <c r="E5">
-        <v>0.07990406411087037</v>
+        <v>0.1290716731836064</v>
       </c>
       <c r="F5">
-        <v>0.9366659079900899</v>
+        <v>0.8833202373311195</v>
       </c>
       <c r="G5">
-        <v>0.7991493452811795</v>
+        <v>0.8446037748463766</v>
       </c>
       <c r="H5">
-        <v>0.8353247065070519</v>
+        <v>0.5274363295606292</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9289542429186497</v>
+        <v>2.691832947353817</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3178697135032209</v>
+        <v>0.7952155074916192</v>
       </c>
       <c r="N5">
-        <v>1.229121011414338</v>
+        <v>0.6614428232716096</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03868682882986718</v>
+        <v>0.108355146839358</v>
       </c>
       <c r="D6">
-        <v>0.02049817540422971</v>
+        <v>0.01290782106753063</v>
       </c>
       <c r="E6">
-        <v>0.07970609100909343</v>
+        <v>0.1281985843104962</v>
       </c>
       <c r="F6">
-        <v>0.9359141260608794</v>
+        <v>0.8788785564453434</v>
       </c>
       <c r="G6">
-        <v>0.7983545729736079</v>
+        <v>0.8401549043828851</v>
       </c>
       <c r="H6">
-        <v>0.8352302749367198</v>
+        <v>0.5257412523555729</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9232995513605431</v>
+        <v>2.67199551127095</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3162671986030077</v>
+        <v>0.7892967216687481</v>
       </c>
       <c r="N6">
-        <v>1.229934586195914</v>
+        <v>0.6635696289842095</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04026483206604325</v>
+        <v>0.1140288753022958</v>
       </c>
       <c r="D7">
-        <v>0.02044701922914527</v>
+        <v>0.01272186239908635</v>
       </c>
       <c r="E7">
-        <v>0.08108677098459438</v>
+        <v>0.1342884774007693</v>
       </c>
       <c r="F7">
-        <v>0.9412003817469525</v>
+        <v>0.9099122522889047</v>
       </c>
       <c r="G7">
-        <v>0.8039355674704183</v>
+        <v>0.8712491035831107</v>
       </c>
       <c r="H7">
-        <v>0.8359352504417075</v>
+        <v>0.5376276543476877</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9625647617746154</v>
+        <v>2.809853821841955</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3274035830688788</v>
+        <v>0.8304621680014748</v>
       </c>
       <c r="N7">
-        <v>1.224335867199005</v>
+        <v>0.6489184300510487</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04726506966014199</v>
+        <v>0.1393958754357243</v>
       </c>
       <c r="D8">
-        <v>0.02023429357161177</v>
+        <v>0.01193985311355306</v>
       </c>
       <c r="E8">
-        <v>0.08734273346382793</v>
+        <v>0.1619769983867343</v>
       </c>
       <c r="F8">
-        <v>0.9662189469840996</v>
+        <v>1.052321067967526</v>
       </c>
       <c r="G8">
-        <v>0.8301657897390697</v>
+        <v>1.014225679739525</v>
       </c>
       <c r="H8">
-        <v>0.8402746194898185</v>
+        <v>0.5932822475689505</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.136218843769029</v>
+        <v>3.42300380484977</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3768754998494543</v>
+        <v>1.014452041833529</v>
       </c>
       <c r="N8">
-        <v>1.200828613440638</v>
+        <v>0.5871088418467205</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06113086700693771</v>
+        <v>0.1907480777888964</v>
       </c>
       <c r="D9">
-        <v>0.01986398586745608</v>
+        <v>0.01056919744935492</v>
       </c>
       <c r="E9">
-        <v>0.100215049990517</v>
+        <v>0.2200618176459841</v>
       </c>
       <c r="F9">
-        <v>1.021432361485481</v>
+        <v>1.355746900213333</v>
       </c>
       <c r="G9">
-        <v>0.8874511918486689</v>
+        <v>1.320257214206151</v>
       </c>
       <c r="H9">
-        <v>0.8532316029470053</v>
+        <v>0.716218810135814</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.478179707266861</v>
+        <v>4.65051527853808</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4751112752005042</v>
+        <v>1.386767537751155</v>
       </c>
       <c r="N9">
-        <v>1.159053477473734</v>
+        <v>0.4770968761789574</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07140923185518488</v>
+        <v>0.229905812698135</v>
       </c>
       <c r="D10">
-        <v>0.01962056527909439</v>
+        <v>0.009689444903841604</v>
       </c>
       <c r="E10">
-        <v>0.1100583518448275</v>
+        <v>0.2659721188294384</v>
       </c>
       <c r="F10">
-        <v>1.065823439068623</v>
+        <v>1.598230222982266</v>
       </c>
       <c r="G10">
-        <v>0.9331935180001096</v>
+        <v>1.566007780238863</v>
       </c>
       <c r="H10">
-        <v>0.8654957159989465</v>
+        <v>0.8173946989692809</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.730360434750025</v>
+        <v>5.576130399115243</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5480744317927417</v>
+        <v>1.670683972644298</v>
       </c>
       <c r="N10">
-        <v>1.131008367911803</v>
+        <v>0.4041332365877706</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0761064585615685</v>
+        <v>0.2481430175939465</v>
       </c>
       <c r="D11">
-        <v>0.01951607268849109</v>
+        <v>0.009324575534432</v>
       </c>
       <c r="E11">
-        <v>0.1146240191649355</v>
+        <v>0.2877978143991911</v>
       </c>
       <c r="F11">
-        <v>1.086865519702471</v>
+        <v>1.714008801478343</v>
       </c>
       <c r="G11">
-        <v>0.9548162504853792</v>
+        <v>1.683680471621585</v>
       </c>
       <c r="H11">
-        <v>0.8716783643879751</v>
+        <v>0.8663979341170602</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.845306156872823</v>
+        <v>6.004517454092706</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5814488436438268</v>
+        <v>1.802952260580525</v>
       </c>
       <c r="N11">
-        <v>1.11882736591819</v>
+        <v>0.3729106903102712</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07788837749667721</v>
+        <v>0.2551205637235654</v>
       </c>
       <c r="D12">
-        <v>0.019477404414463</v>
+        <v>0.009192277138978966</v>
       </c>
       <c r="E12">
-        <v>0.1163658552739335</v>
+        <v>0.2962206683268889</v>
       </c>
       <c r="F12">
-        <v>1.094956851724902</v>
+        <v>1.758753426786171</v>
       </c>
       <c r="G12">
-        <v>0.9631228188649175</v>
+        <v>1.729212007105389</v>
       </c>
       <c r="H12">
-        <v>0.8741069408500266</v>
+        <v>0.8854410926837772</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.888866704121085</v>
+        <v>6.167990741163464</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5941138697596955</v>
+        <v>1.853567453597151</v>
       </c>
       <c r="N12">
-        <v>1.114297959110008</v>
+        <v>0.3613959612527076</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07750446656524446</v>
+        <v>0.2536144633433537</v>
       </c>
       <c r="D13">
-        <v>0.01948569219773866</v>
+        <v>0.009220494903903642</v>
       </c>
       <c r="E13">
-        <v>0.1159901407745849</v>
+        <v>0.2943992399922308</v>
       </c>
       <c r="F13">
-        <v>1.093208742766421</v>
+        <v>1.749074786717088</v>
       </c>
       <c r="G13">
-        <v>0.9613285574438635</v>
+        <v>1.719360603351987</v>
       </c>
       <c r="H13">
-        <v>0.8735800102639359</v>
+        <v>0.8813171551093433</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.879483682400007</v>
+        <v>6.132724704300585</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5913850266049394</v>
+        <v>1.842641694565515</v>
       </c>
       <c r="N13">
-        <v>1.11526973903792</v>
+        <v>0.3638617026998663</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07625299387385098</v>
+        <v>0.2487155667535745</v>
       </c>
       <c r="D14">
-        <v>0.01951287335256069</v>
+        <v>0.00931356863162236</v>
       </c>
       <c r="E14">
-        <v>0.114767060597174</v>
+        <v>0.2884874623363345</v>
       </c>
       <c r="F14">
-        <v>1.087528723612294</v>
+        <v>1.717671188453636</v>
       </c>
       <c r="G14">
-        <v>0.9554972536512594</v>
+        <v>1.687406134085364</v>
       </c>
       <c r="H14">
-        <v>0.8718764112699944</v>
+        <v>0.8679545121059959</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.848889243675615</v>
+        <v>6.017940170087456</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5824902615672158</v>
+        <v>1.807105324281977</v>
       </c>
       <c r="N14">
-        <v>1.118453058078227</v>
+        <v>0.3719570258632094</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07548684745893297</v>
+        <v>0.2457244968090748</v>
       </c>
       <c r="D15">
-        <v>0.01952964001360868</v>
+        <v>0.009371369073390312</v>
       </c>
       <c r="E15">
-        <v>0.1140195791166505</v>
+        <v>0.2848876170877617</v>
       </c>
       <c r="F15">
-        <v>1.084065620599546</v>
+        <v>1.69855666072695</v>
       </c>
       <c r="G15">
-        <v>0.9519408871122721</v>
+        <v>1.667963603654613</v>
       </c>
       <c r="H15">
-        <v>0.8708442982556051</v>
+        <v>0.859834744573277</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.830153588766166</v>
+        <v>5.947800764411966</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5770454750944936</v>
+        <v>1.785409593570677</v>
       </c>
       <c r="N15">
-        <v>1.120413787384134</v>
+        <v>0.3769566366630759</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07110269767534305</v>
+        <v>0.22872337608311</v>
       </c>
       <c r="D16">
-        <v>0.0196275199746303</v>
+        <v>0.009714065446628339</v>
       </c>
       <c r="E16">
-        <v>0.1097617671419329</v>
+        <v>0.2645665621015709</v>
       </c>
       <c r="F16">
-        <v>1.064465459658464</v>
+        <v>1.590783450985825</v>
       </c>
       <c r="G16">
-        <v>0.9317969281087528</v>
+        <v>1.558446338923005</v>
       </c>
       <c r="H16">
-        <v>0.8651038581166688</v>
+        <v>0.8142569882787711</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.722853071095983</v>
+        <v>5.548298144368914</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.54589706517244</v>
+        <v>1.6621092285787</v>
       </c>
       <c r="N16">
-        <v>1.131816060321314</v>
+        <v>0.4062154311429094</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06841874107838919</v>
+        <v>0.2184094963065775</v>
       </c>
       <c r="D17">
-        <v>0.01968916684191413</v>
+        <v>0.009933869445081456</v>
       </c>
       <c r="E17">
-        <v>0.1071724469623163</v>
+        <v>0.2523564667120652</v>
       </c>
       <c r="F17">
-        <v>1.052659502541673</v>
+        <v>1.52614720003352</v>
       </c>
       <c r="G17">
-        <v>0.9196488286962961</v>
+        <v>1.492852017685578</v>
       </c>
       <c r="H17">
-        <v>0.8617372725637154</v>
+        <v>0.7870987038846522</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.657086203366532</v>
+        <v>5.305226001764993</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5268357968760569</v>
+        <v>1.587320049467152</v>
       </c>
       <c r="N17">
-        <v>1.13895895998154</v>
+        <v>0.4246862355654732</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06687702334342305</v>
+        <v>0.2125164534378143</v>
       </c>
       <c r="D18">
-        <v>0.01972521166237406</v>
+        <v>0.01006356634021621</v>
       </c>
       <c r="E18">
-        <v>0.105691395304838</v>
+        <v>0.2454205893810979</v>
       </c>
       <c r="F18">
-        <v>1.045948809672666</v>
+        <v>1.489477536843737</v>
       </c>
       <c r="G18">
-        <v>0.9127381257797822</v>
+        <v>1.455668947757289</v>
       </c>
       <c r="H18">
-        <v>0.8598576866583869</v>
+        <v>0.7717543807708012</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.619280223794874</v>
+        <v>5.166093071780324</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5158894620495573</v>
+        <v>1.544590980826868</v>
       </c>
       <c r="N18">
-        <v>1.143121643884079</v>
+        <v>0.4354937950412197</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06635536917357854</v>
+        <v>0.2105276061958676</v>
       </c>
       <c r="D19">
-        <v>0.01973751656921507</v>
+        <v>0.01010801941974115</v>
       </c>
       <c r="E19">
-        <v>0.105191346382064</v>
+        <v>0.2430865264249391</v>
       </c>
       <c r="F19">
-        <v>1.043690351714261</v>
+        <v>1.477145675772675</v>
       </c>
       <c r="G19">
-        <v>0.9104113873913775</v>
+        <v>1.443169409621362</v>
       </c>
       <c r="H19">
-        <v>0.859231027731937</v>
+        <v>0.7666048568753183</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.606483429800619</v>
+        <v>5.11909539887381</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5121861597066442</v>
+        <v>1.530170768656262</v>
       </c>
       <c r="N19">
-        <v>1.144540369531726</v>
+        <v>0.4391838622720048</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06870424285764898</v>
+        <v>0.219503294004042</v>
       </c>
       <c r="D20">
-        <v>0.01968254363476163</v>
+        <v>0.009910127053931461</v>
       </c>
       <c r="E20">
-        <v>0.1074472279655296</v>
+        <v>0.2536470882129152</v>
       </c>
       <c r="F20">
-        <v>1.053908001405986</v>
+        <v>1.532974534898102</v>
       </c>
       <c r="G20">
-        <v>0.9209340805126089</v>
+        <v>1.499777368885731</v>
       </c>
       <c r="H20">
-        <v>0.8620897704430206</v>
+        <v>0.7899607409180476</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.664084982848294</v>
+        <v>5.331030137078642</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5288631172073224</v>
+        <v>1.595251158858204</v>
       </c>
       <c r="N20">
-        <v>1.138192966374558</v>
+        <v>0.422700805917593</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07662049474195953</v>
+        <v>0.2501524607890673</v>
       </c>
       <c r="D21">
-        <v>0.01950486511177729</v>
+        <v>0.009286064365893409</v>
       </c>
       <c r="E21">
-        <v>0.1151259561081019</v>
+        <v>0.2902194135059659</v>
       </c>
       <c r="F21">
-        <v>1.089193731296987</v>
+        <v>1.726869728249056</v>
       </c>
       <c r="G21">
-        <v>0.9572068213332727</v>
+        <v>1.696764492867146</v>
       </c>
       <c r="H21">
-        <v>0.8723744248369485</v>
+        <v>0.8718657344962253</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.857874670474757</v>
+        <v>6.051619469136199</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5851021364098585</v>
+        <v>1.817528196614205</v>
       </c>
       <c r="N21">
-        <v>1.117515777460693</v>
+        <v>0.3695706408594388</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08181280394936152</v>
+        <v>0.2706060735872171</v>
       </c>
       <c r="D22">
-        <v>0.01939399433784317</v>
+        <v>0.008912883972152841</v>
       </c>
       <c r="E22">
-        <v>0.120219869496168</v>
+        <v>0.3150548057983542</v>
       </c>
       <c r="F22">
-        <v>1.112973369746982</v>
+        <v>1.858911317977501</v>
       </c>
       <c r="G22">
-        <v>0.9816045772585653</v>
+        <v>1.831239006967337</v>
       </c>
       <c r="H22">
-        <v>0.8796053896993783</v>
+        <v>0.9282646145290698</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.984720546708729</v>
+        <v>6.52997685191167</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6220144035981292</v>
+        <v>1.965921729845007</v>
       </c>
       <c r="N22">
-        <v>1.104487580705449</v>
+        <v>0.3366596758738059</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07903984311577972</v>
+        <v>0.2596471282337092</v>
       </c>
       <c r="D23">
-        <v>0.01945268633611441</v>
+        <v>0.009108587244227806</v>
       </c>
       <c r="E23">
-        <v>0.1174941587776246</v>
+        <v>0.3017060341694204</v>
       </c>
       <c r="F23">
-        <v>1.100215611926899</v>
+        <v>1.787909827192053</v>
       </c>
       <c r="G23">
-        <v>0.9685193014881861</v>
+        <v>1.758897280787124</v>
       </c>
       <c r="H23">
-        <v>0.8756993026086661</v>
+        <v>0.8978797297787366</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.917002710130532</v>
+        <v>6.273918014825767</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6022991055833842</v>
+        <v>1.886406383063104</v>
       </c>
       <c r="N23">
-        <v>1.111396438786818</v>
+        <v>0.3540497985799727</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06857516338433811</v>
+        <v>0.2190086750184292</v>
       </c>
       <c r="D24">
-        <v>0.01968553610788426</v>
+        <v>0.009920850678858173</v>
       </c>
       <c r="E24">
-        <v>0.1073229758766701</v>
+        <v>0.2530633386724759</v>
       </c>
       <c r="F24">
-        <v>1.053343316215731</v>
+        <v>1.529886377281372</v>
       </c>
       <c r="G24">
-        <v>0.9203527896376897</v>
+        <v>1.496644782402399</v>
       </c>
       <c r="H24">
-        <v>0.8619302320382189</v>
+        <v>0.7886659793857405</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.660920821386185</v>
+        <v>5.319362194551843</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.527946527597976</v>
+        <v>1.591664674785022</v>
       </c>
       <c r="N24">
-        <v>1.13853909724548</v>
+        <v>0.4235978335737451</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0573642875761351</v>
+        <v>0.1766401154600317</v>
       </c>
       <c r="D25">
-        <v>0.01995914122488607</v>
+        <v>0.01091994337829227</v>
       </c>
       <c r="E25">
-        <v>0.09666623743375169</v>
+        <v>0.203853354946574</v>
       </c>
       <c r="F25">
-        <v>1.005829297462299</v>
+        <v>1.270606697203917</v>
       </c>
       <c r="G25">
-        <v>0.8713186745983421</v>
+        <v>1.234209621210198</v>
       </c>
       <c r="H25">
-        <v>0.8492468393872343</v>
+        <v>0.6812470011043956</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.3855101466973</v>
+        <v>4.31493148309886</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.448400538580529</v>
+        <v>1.284488479462667</v>
       </c>
       <c r="N25">
-        <v>1.169890796227889</v>
+        <v>0.505559026258465</v>
       </c>
       <c r="O25">
         <v>0</v>
